--- a/מדדים.xlsx
+++ b/מדדים.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97252\Desktop\Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBF5B4D-B38F-48C3-9521-DAFEFD946212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76794024-17C7-44E0-A5A3-8055EC8793CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{221530AA-E6A9-4331-A1E9-B4EB75820580}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>מצב קיים</t>
   </si>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4CFD57-DE92-42E5-B09D-48747ED42E88}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -787,6 +787,109 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="3"/>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1.9618208934717701E-2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>6.2989814934013497E-3</v>
+      </c>
+      <c r="I16" s="9">
+        <v>4.1602696143246097E-2</v>
+      </c>
+      <c r="J16" s="9">
+        <v>8.4244053644504102E-3</v>
+      </c>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="6:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1.1980191024901899E-2</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1.9325657540816901E-2</v>
+      </c>
+      <c r="I17" s="9">
+        <v>3.6751243510503503E-2</v>
+      </c>
+      <c r="J17" s="9">
+        <v>3.4782507756529503E-2</v>
+      </c>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="6:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="6:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="3"/>
+      <c r="G19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1.9618208934717701E-2</v>
+      </c>
+      <c r="H20" s="9">
+        <v>6.2989814934013497E-3</v>
+      </c>
+      <c r="I20" s="9">
+        <v>4.1602696143246097E-2</v>
+      </c>
+      <c r="J20" s="9">
+        <v>8.4244053644504102E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1.28167165465093E-2</v>
+      </c>
+      <c r="H21" s="9">
+        <v>1.6316127784170999E-2</v>
+      </c>
+      <c r="I21" s="9">
+        <v>3.9753048979720498E-2</v>
+      </c>
+      <c r="J21" s="9">
+        <v>1.3162680897374299E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/מדדים.xlsx
+++ b/מדדים.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97252\Desktop\Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76794024-17C7-44E0-A5A3-8055EC8793CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB47B7C-24C6-4545-B3E1-1370D9176266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{221530AA-E6A9-4331-A1E9-B4EB75820580}"/>
   </bookViews>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4CFD57-DE92-42E5-B09D-48747ED42E88}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
         <v>0.13426156863693001</v>
       </c>
       <c r="J2" s="9">
-        <v>2.7187513885397498E-2</v>
+        <v>4.3977506617986002E-2</v>
       </c>
       <c r="K2" s="8">
         <v>0.13426156863693001</v>
@@ -746,7 +746,7 @@
         <v>0.13426156863693001</v>
       </c>
       <c r="J8" s="9">
-        <v>2.7187513885397498E-2</v>
+        <v>4.3977506617986002E-2</v>
       </c>
       <c r="K8" s="8">
         <v>0.13426156863693001</v>
